--- a/project-plan.xlsx
+++ b/project-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONNECT\Desktop\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{12971FE6-C7E5-4C6E-BB23-65BACF6A8B4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EBF8B9FC-4C9E-41C2-9E4B-85C8CF39F402}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="5652" xr2:uid="{E90CD86E-225E-4629-86BA-DDE219281529}"/>
   </bookViews>
@@ -1657,27 +1657,48 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1696,44 +1717,23 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3453,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BBAB3C-235E-4595-80CB-AA72649E68A2}">
   <dimension ref="A3:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A131" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="F35" s="81"/>
       <c r="G35" s="81" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H35" s="81"/>
       <c r="I35" s="81" t="s">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="F38" s="81"/>
       <c r="G38" s="81" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H38" s="81"/>
       <c r="I38" s="81" t="s">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="F41" s="81"/>
       <c r="G41" s="81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H41" s="81"/>
       <c r="I41" s="81" t="s">
@@ -4191,16 +4191,16 @@
       </c>
     </row>
     <row r="61" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="97"/>
+      <c r="E61" s="99"/>
       <c r="F61" s="31" t="s">
         <v>79</v>
       </c>
@@ -4216,83 +4216,83 @@
       <c r="N61" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="P61" s="102" t="s">
+      <c r="P61" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="Q61" s="103"/>
+      <c r="Q61" s="109"/>
       <c r="R61" s="70" t="s">
         <v>78</v>
       </c>
       <c r="S61" s="70"/>
     </row>
     <row r="62" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B62" s="100"/>
+      <c r="B62" s="98"/>
       <c r="C62" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="97" t="s">
+      <c r="D62" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="97"/>
-      <c r="F62" s="98" t="s">
+      <c r="E62" s="99"/>
+      <c r="F62" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="98"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="98"/>
-      <c r="K62" s="98"/>
-      <c r="L62" s="98"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="97"/>
       <c r="M62" s="33">
         <v>43170</v>
       </c>
       <c r="N62" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="P62" s="102" t="s">
+      <c r="P62" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="Q62" s="103"/>
+      <c r="Q62" s="109"/>
       <c r="R62" s="70" t="s">
         <v>86</v>
       </c>
       <c r="S62" s="70"/>
     </row>
     <row r="63" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B63" s="100"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="97" t="s">
+      <c r="D63" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="97"/>
-      <c r="F63" s="98" t="s">
+      <c r="E63" s="99"/>
+      <c r="F63" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="98"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="97"/>
       <c r="M63" s="33">
         <v>43174</v>
       </c>
       <c r="N63" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="P63" s="102" t="s">
+      <c r="P63" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="Q63" s="103"/>
+      <c r="Q63" s="109"/>
       <c r="R63" s="70" t="s">
         <v>82</v>
       </c>
       <c r="S63" s="70"/>
     </row>
     <row r="64" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B64" s="100" t="s">
+      <c r="B64" s="98" t="s">
         <v>89</v>
       </c>
       <c r="C64" s="30" t="s">
@@ -4302,94 +4302,94 @@
         <v>90</v>
       </c>
       <c r="E64" s="101"/>
-      <c r="F64" s="98" t="s">
+      <c r="F64" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="98"/>
-      <c r="H64" s="98"/>
-      <c r="I64" s="98"/>
-      <c r="J64" s="98"/>
-      <c r="K64" s="98"/>
-      <c r="L64" s="98"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
       <c r="M64" s="33">
         <v>43170</v>
       </c>
       <c r="N64" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="P64" s="114" t="s">
+      <c r="P64" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="Q64" s="115"/>
+      <c r="Q64" s="103"/>
       <c r="R64" s="70" t="s">
         <v>92</v>
       </c>
       <c r="S64" s="70"/>
     </row>
     <row r="65" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="100"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="97" t="s">
+      <c r="D65" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="97"/>
-      <c r="F65" s="98" t="s">
+      <c r="E65" s="99"/>
+      <c r="F65" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="98"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="98"/>
-      <c r="J65" s="98"/>
-      <c r="K65" s="98"/>
-      <c r="L65" s="98"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="97"/>
       <c r="M65" s="33">
         <v>43170</v>
       </c>
       <c r="N65" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="117"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="105"/>
       <c r="R65" s="70" t="s">
         <v>90</v>
       </c>
       <c r="S65" s="70"/>
     </row>
     <row r="66" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B66" s="100"/>
+      <c r="B66" s="98"/>
       <c r="C66" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="97" t="s">
+      <c r="D66" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="97"/>
-      <c r="F66" s="98" t="s">
+      <c r="E66" s="99"/>
+      <c r="F66" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="98"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98"/>
-      <c r="L66" s="98"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="97"/>
       <c r="M66" s="33">
         <v>43174</v>
       </c>
       <c r="N66" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="P66" s="118"/>
-      <c r="Q66" s="119"/>
+      <c r="P66" s="106"/>
+      <c r="Q66" s="107"/>
       <c r="R66" s="70" t="s">
         <v>91</v>
       </c>
       <c r="S66" s="70"/>
     </row>
     <row r="67" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="98" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="31" t="s">
@@ -4408,19 +4408,19 @@
       <c r="J67" s="32"/>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
-      <c r="M67" s="104"/>
-      <c r="N67" s="105"/>
-      <c r="P67" s="102" t="s">
+      <c r="M67" s="111"/>
+      <c r="N67" s="112"/>
+      <c r="P67" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="Q67" s="103"/>
+      <c r="Q67" s="109"/>
       <c r="R67" s="70" t="s">
         <v>82</v>
       </c>
       <c r="S67" s="70"/>
     </row>
     <row r="68" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B68" s="100"/>
+      <c r="B68" s="98"/>
       <c r="C68" s="31" t="s">
         <v>81</v>
       </c>
@@ -4428,24 +4428,24 @@
         <v>82</v>
       </c>
       <c r="E68" s="34"/>
-      <c r="F68" s="98" t="s">
+      <c r="F68" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="98"/>
-      <c r="K68" s="98"/>
-      <c r="L68" s="98"/>
-      <c r="M68" s="106"/>
-      <c r="N68" s="107"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="97"/>
+      <c r="L68" s="97"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="114"/>
       <c r="P68" s="27"/>
       <c r="Q68" s="27"/>
       <c r="R68" s="27"/>
       <c r="S68" s="27"/>
     </row>
     <row r="69" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B69" s="100"/>
+      <c r="B69" s="98"/>
       <c r="C69" s="31" t="s">
         <v>85</v>
       </c>
@@ -4453,20 +4453,20 @@
         <v>78</v>
       </c>
       <c r="E69" s="101"/>
-      <c r="F69" s="98" t="s">
+      <c r="F69" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="G69" s="98"/>
-      <c r="H69" s="98"/>
-      <c r="I69" s="98"/>
-      <c r="J69" s="98"/>
-      <c r="K69" s="98"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="106"/>
-      <c r="N69" s="107"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="97"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="114"/>
     </row>
     <row r="70" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B70" s="99" t="s">
+      <c r="B70" s="100" t="s">
         <v>94</v>
       </c>
       <c r="C70" s="31" t="s">
@@ -4476,60 +4476,60 @@
         <v>91</v>
       </c>
       <c r="E70" s="101"/>
-      <c r="F70" s="98" t="s">
+      <c r="F70" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="G70" s="98"/>
-      <c r="H70" s="98"/>
-      <c r="I70" s="98"/>
-      <c r="J70" s="98"/>
-      <c r="K70" s="98"/>
-      <c r="L70" s="98"/>
-      <c r="M70" s="106"/>
-      <c r="N70" s="107"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="97"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="114"/>
     </row>
     <row r="71" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B71" s="99"/>
+      <c r="B71" s="100"/>
       <c r="C71" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="97" t="s">
+      <c r="D71" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="97"/>
-      <c r="F71" s="98" t="s">
+      <c r="E71" s="99"/>
+      <c r="F71" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="G71" s="98"/>
-      <c r="H71" s="98"/>
-      <c r="I71" s="98"/>
-      <c r="J71" s="98"/>
-      <c r="K71" s="98"/>
-      <c r="L71" s="98"/>
-      <c r="M71" s="106"/>
-      <c r="N71" s="107"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="97"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="97"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="114"/>
     </row>
     <row r="72" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="99"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="97" t="s">
+      <c r="D72" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E72" s="97"/>
-      <c r="F72" s="98" t="s">
+      <c r="E72" s="99"/>
+      <c r="F72" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="98"/>
-      <c r="H72" s="98"/>
-      <c r="I72" s="98"/>
-      <c r="J72" s="98"/>
-      <c r="K72" s="98"/>
-      <c r="L72" s="98"/>
-      <c r="M72" s="106"/>
-      <c r="N72" s="107"/>
-      <c r="P72" s="122" t="s">
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="97"/>
+      <c r="K72" s="97"/>
+      <c r="L72" s="97"/>
+      <c r="M72" s="113"/>
+      <c r="N72" s="114"/>
+      <c r="P72" s="118" t="s">
         <v>106</v>
       </c>
       <c r="Q72" s="26" t="s">
@@ -4538,329 +4538,329 @@
       <c r="R72" s="26"/>
     </row>
     <row r="73" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="100" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="98"/>
-      <c r="E73" s="98"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="98"/>
-      <c r="H73" s="98"/>
-      <c r="I73" s="98"/>
-      <c r="J73" s="98"/>
-      <c r="K73" s="98"/>
-      <c r="L73" s="98"/>
-      <c r="M73" s="106"/>
-      <c r="N73" s="107"/>
-      <c r="P73" s="122"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="97"/>
+      <c r="L73" s="97"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="114"/>
+      <c r="P73" s="118"/>
       <c r="Q73" s="70" t="s">
         <v>108</v>
       </c>
       <c r="R73" s="70"/>
     </row>
     <row r="74" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B74" s="99"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="98"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="98"/>
-      <c r="L74" s="98"/>
-      <c r="M74" s="106"/>
-      <c r="N74" s="107"/>
-      <c r="P74" s="122"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="113"/>
+      <c r="N74" s="114"/>
+      <c r="P74" s="118"/>
       <c r="Q74" s="70" t="s">
         <v>109</v>
       </c>
       <c r="R74" s="70"/>
     </row>
     <row r="75" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="99"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D75" s="98"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="98"/>
-      <c r="I75" s="98"/>
-      <c r="J75" s="98"/>
-      <c r="K75" s="98"/>
-      <c r="L75" s="98"/>
-      <c r="M75" s="106"/>
-      <c r="N75" s="107"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="113"/>
+      <c r="N75" s="114"/>
     </row>
     <row r="76" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B76" s="99" t="s">
+      <c r="B76" s="100" t="s">
         <v>96</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="98"/>
-      <c r="I76" s="98"/>
-      <c r="J76" s="98"/>
-      <c r="K76" s="98"/>
-      <c r="L76" s="98"/>
-      <c r="M76" s="106"/>
-      <c r="N76" s="107"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="97"/>
+      <c r="L76" s="97"/>
+      <c r="M76" s="113"/>
+      <c r="N76" s="114"/>
     </row>
     <row r="77" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B77" s="99"/>
+      <c r="B77" s="100"/>
       <c r="C77" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="98"/>
-      <c r="K77" s="98"/>
-      <c r="L77" s="98"/>
-      <c r="M77" s="106"/>
-      <c r="N77" s="107"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="97"/>
+      <c r="K77" s="97"/>
+      <c r="L77" s="97"/>
+      <c r="M77" s="113"/>
+      <c r="N77" s="114"/>
     </row>
     <row r="78" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="99"/>
+      <c r="B78" s="100"/>
       <c r="C78" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D78" s="98"/>
-      <c r="E78" s="98"/>
-      <c r="F78" s="98"/>
-      <c r="G78" s="98"/>
-      <c r="H78" s="98"/>
-      <c r="I78" s="98"/>
-      <c r="J78" s="98"/>
-      <c r="K78" s="98"/>
-      <c r="L78" s="98"/>
-      <c r="M78" s="106"/>
-      <c r="N78" s="107"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="97"/>
+      <c r="K78" s="97"/>
+      <c r="L78" s="97"/>
+      <c r="M78" s="113"/>
+      <c r="N78" s="114"/>
     </row>
     <row r="79" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B79" s="99"/>
+      <c r="B79" s="100"/>
       <c r="C79" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="98"/>
-      <c r="E79" s="98"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="98"/>
-      <c r="H79" s="98"/>
-      <c r="I79" s="98"/>
-      <c r="J79" s="98"/>
-      <c r="K79" s="98"/>
-      <c r="L79" s="98"/>
-      <c r="M79" s="106"/>
-      <c r="N79" s="107"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="97"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="114"/>
     </row>
     <row r="80" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B80" s="99" t="s">
+      <c r="B80" s="100" t="s">
         <v>98</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D80" s="98"/>
-      <c r="E80" s="98"/>
-      <c r="F80" s="98"/>
-      <c r="G80" s="98"/>
-      <c r="H80" s="98"/>
-      <c r="I80" s="98"/>
-      <c r="J80" s="98"/>
-      <c r="K80" s="98"/>
-      <c r="L80" s="98"/>
-      <c r="M80" s="106"/>
-      <c r="N80" s="107"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="97"/>
+      <c r="L80" s="97"/>
+      <c r="M80" s="113"/>
+      <c r="N80" s="114"/>
     </row>
     <row r="81" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B81" s="99"/>
+      <c r="B81" s="100"/>
       <c r="C81" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D81" s="98"/>
-      <c r="E81" s="98"/>
-      <c r="F81" s="98"/>
-      <c r="G81" s="98"/>
-      <c r="H81" s="98"/>
-      <c r="I81" s="98"/>
-      <c r="J81" s="98"/>
-      <c r="K81" s="98"/>
-      <c r="L81" s="98"/>
-      <c r="M81" s="106"/>
-      <c r="N81" s="107"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="97"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="97"/>
+      <c r="J81" s="97"/>
+      <c r="K81" s="97"/>
+      <c r="L81" s="97"/>
+      <c r="M81" s="113"/>
+      <c r="N81" s="114"/>
     </row>
     <row r="82" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="99"/>
+      <c r="B82" s="100"/>
       <c r="C82" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="98"/>
-      <c r="E82" s="98"/>
-      <c r="F82" s="98"/>
-      <c r="G82" s="98"/>
-      <c r="H82" s="98"/>
-      <c r="I82" s="98"/>
-      <c r="J82" s="98"/>
-      <c r="K82" s="98"/>
-      <c r="L82" s="98"/>
-      <c r="M82" s="106"/>
-      <c r="N82" s="107"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="97"/>
+      <c r="K82" s="97"/>
+      <c r="L82" s="97"/>
+      <c r="M82" s="113"/>
+      <c r="N82" s="114"/>
     </row>
     <row r="83" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B83" s="99"/>
+      <c r="B83" s="100"/>
       <c r="C83" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="98"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="98"/>
-      <c r="H83" s="98"/>
-      <c r="I83" s="98"/>
-      <c r="J83" s="98"/>
-      <c r="K83" s="98"/>
-      <c r="L83" s="98"/>
-      <c r="M83" s="106"/>
-      <c r="N83" s="107"/>
+      <c r="D83" s="97"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="97"/>
+      <c r="J83" s="97"/>
+      <c r="K83" s="97"/>
+      <c r="L83" s="97"/>
+      <c r="M83" s="113"/>
+      <c r="N83" s="114"/>
     </row>
     <row r="84" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B84" s="99" t="s">
+      <c r="B84" s="100" t="s">
         <v>99</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="98"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="98"/>
-      <c r="G84" s="98"/>
-      <c r="H84" s="98"/>
-      <c r="I84" s="98"/>
-      <c r="J84" s="98"/>
-      <c r="K84" s="98"/>
-      <c r="L84" s="98"/>
-      <c r="M84" s="106"/>
-      <c r="N84" s="107"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="97"/>
+      <c r="K84" s="97"/>
+      <c r="L84" s="97"/>
+      <c r="M84" s="113"/>
+      <c r="N84" s="114"/>
     </row>
     <row r="85" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B85" s="99"/>
+      <c r="B85" s="100"/>
       <c r="C85" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="98"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="98"/>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="98"/>
-      <c r="J85" s="98"/>
-      <c r="K85" s="98"/>
-      <c r="L85" s="98"/>
-      <c r="M85" s="106"/>
-      <c r="N85" s="107"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="113"/>
+      <c r="N85" s="114"/>
     </row>
     <row r="86" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="99"/>
+      <c r="B86" s="100"/>
       <c r="C86" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="98"/>
-      <c r="E86" s="98"/>
-      <c r="F86" s="98"/>
-      <c r="G86" s="98"/>
-      <c r="H86" s="98"/>
-      <c r="I86" s="98"/>
-      <c r="J86" s="98"/>
-      <c r="K86" s="98"/>
-      <c r="L86" s="98"/>
-      <c r="M86" s="106"/>
-      <c r="N86" s="107"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="113"/>
+      <c r="N86" s="114"/>
     </row>
     <row r="87" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B87" s="99"/>
+      <c r="B87" s="100"/>
       <c r="C87" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="98"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="98"/>
-      <c r="G87" s="98"/>
-      <c r="H87" s="98"/>
-      <c r="I87" s="98"/>
-      <c r="J87" s="98"/>
-      <c r="K87" s="98"/>
-      <c r="L87" s="98"/>
-      <c r="M87" s="108"/>
-      <c r="N87" s="109"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="97"/>
+      <c r="G87" s="97"/>
+      <c r="H87" s="97"/>
+      <c r="I87" s="97"/>
+      <c r="J87" s="97"/>
+      <c r="K87" s="97"/>
+      <c r="L87" s="97"/>
+      <c r="M87" s="115"/>
+      <c r="N87" s="116"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B93" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="110"/>
-      <c r="D93" s="110"/>
-      <c r="E93" s="110"/>
-      <c r="F93" s="110"/>
-      <c r="G93" s="110"/>
-      <c r="H93" s="110"/>
-      <c r="I93" s="110"/>
-      <c r="J93" s="110"/>
-      <c r="K93" s="110"/>
-      <c r="L93" s="110"/>
-      <c r="M93" s="110"/>
-      <c r="N93" s="110"/>
-      <c r="O93" s="110"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="122"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="122"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="122"/>
+      <c r="M93" s="122"/>
+      <c r="N93" s="122"/>
+      <c r="O93" s="122"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B94" s="110"/>
-      <c r="C94" s="110"/>
-      <c r="D94" s="110"/>
-      <c r="E94" s="110"/>
-      <c r="F94" s="110"/>
-      <c r="G94" s="110"/>
-      <c r="H94" s="110"/>
-      <c r="I94" s="110"/>
-      <c r="J94" s="110"/>
-      <c r="K94" s="110"/>
-      <c r="L94" s="110"/>
-      <c r="M94" s="110"/>
-      <c r="N94" s="110"/>
-      <c r="O94" s="110"/>
+      <c r="B94" s="122"/>
+      <c r="C94" s="122"/>
+      <c r="D94" s="122"/>
+      <c r="E94" s="122"/>
+      <c r="F94" s="122"/>
+      <c r="G94" s="122"/>
+      <c r="H94" s="122"/>
+      <c r="I94" s="122"/>
+      <c r="J94" s="122"/>
+      <c r="K94" s="122"/>
+      <c r="L94" s="122"/>
+      <c r="M94" s="122"/>
+      <c r="N94" s="122"/>
+      <c r="O94" s="122"/>
     </row>
     <row r="99" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B99" s="111" t="s">
+      <c r="B99" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="113"/>
-      <c r="I99" s="111" t="s">
+      <c r="C99" s="120"/>
+      <c r="D99" s="120"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="120"/>
+      <c r="G99" s="121"/>
+      <c r="I99" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="113"/>
+      <c r="J99" s="120"/>
+      <c r="K99" s="120"/>
+      <c r="L99" s="120"/>
+      <c r="M99" s="120"/>
+      <c r="N99" s="121"/>
     </row>
     <row r="100" spans="2:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B100" s="123" t="s">
@@ -4881,10 +4881,10 @@
       <c r="N100" s="125"/>
     </row>
     <row r="101" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="120" t="s">
+      <c r="B101" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="C101" s="120"/>
+      <c r="C101" s="110"/>
       <c r="D101" s="128" t="s">
         <v>116</v>
       </c>
@@ -4907,10 +4907,10 @@
       <c r="N101" s="134"/>
     </row>
     <row r="102" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="120" t="s">
+      <c r="B102" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="C102" s="120"/>
+      <c r="C102" s="110"/>
       <c r="D102" s="130"/>
       <c r="E102" s="131"/>
       <c r="F102" s="134"/>
@@ -4925,10 +4925,10 @@
       <c r="N102" s="134"/>
     </row>
     <row r="103" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="120" t="s">
+      <c r="B103" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="C103" s="120"/>
+      <c r="C103" s="110"/>
       <c r="D103" s="130"/>
       <c r="E103" s="131"/>
       <c r="F103" s="134"/>
@@ -4943,10 +4943,10 @@
       <c r="N103" s="134"/>
     </row>
     <row r="104" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="120" t="s">
+      <c r="B104" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="120"/>
+      <c r="C104" s="110"/>
       <c r="D104" s="130"/>
       <c r="E104" s="131"/>
       <c r="F104" s="134"/>
@@ -4961,10 +4961,10 @@
       <c r="N104" s="134"/>
     </row>
     <row r="105" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="120" t="s">
+      <c r="B105" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="C105" s="120"/>
+      <c r="C105" s="110"/>
       <c r="D105" s="132"/>
       <c r="E105" s="133"/>
       <c r="F105" s="134"/>
@@ -4979,14 +4979,14 @@
       <c r="N105" s="134"/>
     </row>
     <row r="106" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="120" t="s">
+      <c r="B106" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="C106" s="120"/>
-      <c r="D106" s="121" t="s">
+      <c r="C106" s="110"/>
+      <c r="D106" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="E106" s="121"/>
+      <c r="E106" s="117"/>
       <c r="F106" s="134"/>
       <c r="G106" s="134"/>
       <c r="I106" s="126" t="s">
@@ -5001,12 +5001,12 @@
       <c r="N106" s="134"/>
     </row>
     <row r="107" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="120" t="s">
+      <c r="B107" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="C107" s="120"/>
-      <c r="D107" s="121"/>
-      <c r="E107" s="121"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="117"/>
+      <c r="E107" s="117"/>
       <c r="F107" s="134"/>
       <c r="G107" s="134"/>
       <c r="I107" s="126" t="s">
@@ -5019,12 +5019,12 @@
       <c r="N107" s="134"/>
     </row>
     <row r="108" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="120" t="s">
+      <c r="B108" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="C108" s="120"/>
-      <c r="D108" s="121"/>
-      <c r="E108" s="121"/>
+      <c r="C108" s="110"/>
+      <c r="D108" s="117"/>
+      <c r="E108" s="117"/>
       <c r="F108" s="134"/>
       <c r="G108" s="134"/>
       <c r="I108" s="126" t="s">
@@ -5037,12 +5037,12 @@
       <c r="N108" s="134"/>
     </row>
     <row r="109" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="120" t="s">
+      <c r="B109" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="C109" s="120"/>
-      <c r="D109" s="121"/>
-      <c r="E109" s="121"/>
+      <c r="C109" s="110"/>
+      <c r="D109" s="117"/>
+      <c r="E109" s="117"/>
       <c r="F109" s="134"/>
       <c r="G109" s="134"/>
       <c r="I109" s="126" t="s">
@@ -5055,12 +5055,12 @@
       <c r="N109" s="134"/>
     </row>
     <row r="110" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="120" t="s">
+      <c r="B110" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="C110" s="120"/>
-      <c r="D110" s="121"/>
-      <c r="E110" s="121"/>
+      <c r="C110" s="110"/>
+      <c r="D110" s="117"/>
+      <c r="E110" s="117"/>
       <c r="F110" s="134"/>
       <c r="G110" s="134"/>
       <c r="I110" s="126" t="s">
@@ -5073,22 +5073,22 @@
       <c r="N110" s="134"/>
     </row>
     <row r="114" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B114" s="111" t="s">
+      <c r="B114" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="C114" s="112"/>
-      <c r="D114" s="112"/>
-      <c r="E114" s="112"/>
-      <c r="F114" s="112"/>
-      <c r="G114" s="113"/>
-      <c r="I114" s="111" t="s">
+      <c r="C114" s="120"/>
+      <c r="D114" s="120"/>
+      <c r="E114" s="120"/>
+      <c r="F114" s="120"/>
+      <c r="G114" s="121"/>
+      <c r="I114" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="J114" s="112"/>
-      <c r="K114" s="112"/>
-      <c r="L114" s="112"/>
-      <c r="M114" s="112"/>
-      <c r="N114" s="113"/>
+      <c r="J114" s="120"/>
+      <c r="K114" s="120"/>
+      <c r="L114" s="120"/>
+      <c r="M114" s="120"/>
+      <c r="N114" s="121"/>
     </row>
     <row r="115" spans="2:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B115" s="123" t="s">
@@ -5211,10 +5211,10 @@
         <v>115</v>
       </c>
       <c r="C121" s="135"/>
-      <c r="D121" s="121" t="s">
+      <c r="D121" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="E121" s="121"/>
+      <c r="E121" s="117"/>
       <c r="F121" s="134"/>
       <c r="G121" s="134"/>
       <c r="I121" s="137" t="s">
@@ -5224,7 +5224,7 @@
       <c r="K121" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="L121" s="121"/>
+      <c r="L121" s="117"/>
       <c r="M121" s="134"/>
       <c r="N121" s="134"/>
     </row>
@@ -5233,16 +5233,16 @@
         <v>118</v>
       </c>
       <c r="C122" s="135"/>
-      <c r="D122" s="121"/>
-      <c r="E122" s="121"/>
+      <c r="D122" s="117"/>
+      <c r="E122" s="117"/>
       <c r="F122" s="134"/>
       <c r="G122" s="134"/>
       <c r="I122" s="137" t="s">
         <v>118</v>
       </c>
       <c r="J122" s="137"/>
-      <c r="K122" s="121"/>
-      <c r="L122" s="121"/>
+      <c r="K122" s="117"/>
+      <c r="L122" s="117"/>
       <c r="M122" s="134"/>
       <c r="N122" s="134"/>
     </row>
@@ -5251,16 +5251,16 @@
         <v>119</v>
       </c>
       <c r="C123" s="135"/>
-      <c r="D123" s="121"/>
-      <c r="E123" s="121"/>
+      <c r="D123" s="117"/>
+      <c r="E123" s="117"/>
       <c r="F123" s="134"/>
       <c r="G123" s="134"/>
       <c r="I123" s="137" t="s">
         <v>119</v>
       </c>
       <c r="J123" s="137"/>
-      <c r="K123" s="121"/>
-      <c r="L123" s="121"/>
+      <c r="K123" s="117"/>
+      <c r="L123" s="117"/>
       <c r="M123" s="134"/>
       <c r="N123" s="134"/>
     </row>
@@ -5269,16 +5269,16 @@
         <v>120</v>
       </c>
       <c r="C124" s="135"/>
-      <c r="D124" s="121"/>
-      <c r="E124" s="121"/>
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
       <c r="F124" s="134"/>
       <c r="G124" s="134"/>
       <c r="I124" s="137" t="s">
         <v>120</v>
       </c>
       <c r="J124" s="137"/>
-      <c r="K124" s="121"/>
-      <c r="L124" s="121"/>
+      <c r="K124" s="117"/>
+      <c r="L124" s="117"/>
       <c r="M124" s="134"/>
       <c r="N124" s="134"/>
     </row>
@@ -5287,16 +5287,16 @@
         <v>121</v>
       </c>
       <c r="C125" s="135"/>
-      <c r="D125" s="121"/>
-      <c r="E125" s="121"/>
+      <c r="D125" s="117"/>
+      <c r="E125" s="117"/>
       <c r="F125" s="134"/>
       <c r="G125" s="134"/>
       <c r="I125" s="137" t="s">
         <v>121</v>
       </c>
       <c r="J125" s="137"/>
-      <c r="K125" s="121"/>
-      <c r="L125" s="121"/>
+      <c r="K125" s="117"/>
+      <c r="L125" s="117"/>
       <c r="M125" s="134"/>
       <c r="N125" s="134"/>
     </row>
@@ -5618,10 +5618,6 @@
     <mergeCell ref="B93:O94"/>
     <mergeCell ref="B99:G99"/>
     <mergeCell ref="I99:N99"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="P64:Q66"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="P67:Q67"/>
     <mergeCell ref="R67:S67"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="R61:S61"/>
@@ -5662,6 +5658,10 @@
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="F68:L68"/>
     <mergeCell ref="F69:L69"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="P64:Q66"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="P67:Q67"/>
     <mergeCell ref="F60:L60"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E29:N30"/>
@@ -5737,8 +5737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59000059-A5A7-4E9B-84E8-429AF48FB306}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5755,31 +5755,31 @@
       <c r="B2" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="45"/>
@@ -6168,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664ED9C-906E-4FD5-85C2-9C6A19437167}">
   <dimension ref="C4:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
